--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2789746.358475916</v>
+        <v>2785442.041427674</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>263.3828147651796</v>
       </c>
       <c r="D2" t="n">
-        <v>263.3828147651799</v>
+        <v>263.3828147651796</v>
       </c>
       <c r="E2" t="n">
-        <v>263.3828147651799</v>
+        <v>212.2762171674032</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7938006179689</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.3828147651796</v>
       </c>
       <c r="W2" t="n">
-        <v>263.3828147651799</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>59.48241654943449</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>118.8334290019498</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>39.11554282250384</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.19058462642715</v>
       </c>
       <c r="S3" t="n">
-        <v>147.161321588189</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8434583985096</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,10 +831,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8841809557937</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3867285273816</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>31.73415360498245</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>263.3828147651799</v>
+        <v>263.3828147651796</v>
       </c>
       <c r="X4" t="n">
-        <v>125.8015195471578</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -904,10 +904,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>72.36698404190648</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>219.4450108596164</v>
       </c>
       <c r="X5" t="n">
         <v>263.7138800015061</v>
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>5.751990826910794</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -992,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150561</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>10.18456372565635</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.85228793543985</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888211</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>182.0466682725274</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>244.0615449014514</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>196.699784115679</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1296,19 +1296,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>129.4424145831534</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>24.55276019063743</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560553</v>
       </c>
     </row>
     <row r="12">
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,16 +1587,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>20.25102067617329</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>71.99884436925737</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>99.97427419833905</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>71.39698738222857</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>87.2147151485299</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>55.30088041042234</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.803338518788</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470136</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>133.3722917337068</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410136</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,13 +2532,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>140.1760114441845</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>66.24118421664697</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2851,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V31" t="n">
-        <v>192.9183958257888</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6324680438225141</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>147.2606364488709</v>
       </c>
       <c r="T37" t="n">
-        <v>169.6925488727223</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>241.6877826129306</v>
       </c>
       <c r="X40" t="n">
-        <v>146.0764391541</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3796,10 +3796,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>86.90598908794107</v>
       </c>
       <c r="U43" t="n">
-        <v>205.5383435306682</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695612</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>147.0407206186894</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>25.52471385612679</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>573.0675904419485</v>
+        <v>787.4880118231632</v>
       </c>
       <c r="C2" t="n">
-        <v>573.0675904419485</v>
+        <v>521.444764585608</v>
       </c>
       <c r="D2" t="n">
-        <v>307.024343204393</v>
+        <v>255.4015173480528</v>
       </c>
       <c r="E2" t="n">
-        <v>40.98109596683751</v>
+        <v>40.98109596683749</v>
       </c>
       <c r="F2" t="n">
-        <v>34.03559521763404</v>
+        <v>34.03559521763402</v>
       </c>
       <c r="G2" t="n">
-        <v>21.07062518121439</v>
+        <v>21.07062518121437</v>
       </c>
       <c r="H2" t="n">
-        <v>21.07062518121439</v>
+        <v>21.07062518121437</v>
       </c>
       <c r="I2" t="n">
-        <v>21.07062518121439</v>
+        <v>21.07062518121437</v>
       </c>
       <c r="J2" t="n">
-        <v>49.159939014673</v>
+        <v>49.15993901467277</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9970572935558</v>
+        <v>141.9970572935553</v>
       </c>
       <c r="L2" t="n">
-        <v>294.0714735959966</v>
+        <v>294.0714735959959</v>
       </c>
       <c r="M2" t="n">
-        <v>494.953000779597</v>
+        <v>494.953000779596</v>
       </c>
       <c r="N2" t="n">
-        <v>703.6988094670315</v>
+        <v>703.698809467031</v>
       </c>
       <c r="O2" t="n">
-        <v>887.4762960288933</v>
+        <v>887.4762960288923</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.825128108066</v>
+        <v>1009.825128108065</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.53125906072</v>
+        <v>1053.531259060718</v>
       </c>
       <c r="R2" t="n">
-        <v>1053.53125906072</v>
+        <v>1053.531259060718</v>
       </c>
       <c r="S2" t="n">
-        <v>899.1940867193368</v>
+        <v>1053.531259060718</v>
       </c>
       <c r="T2" t="n">
-        <v>899.1940867193368</v>
+        <v>1053.531259060718</v>
       </c>
       <c r="U2" t="n">
-        <v>899.1940867193368</v>
+        <v>1053.531259060718</v>
       </c>
       <c r="V2" t="n">
-        <v>899.1940867193368</v>
+        <v>787.4880118231632</v>
       </c>
       <c r="W2" t="n">
-        <v>633.1508394817813</v>
+        <v>787.4880118231632</v>
       </c>
       <c r="X2" t="n">
-        <v>573.0675904419485</v>
+        <v>787.4880118231632</v>
       </c>
       <c r="Y2" t="n">
-        <v>573.0675904419485</v>
+        <v>787.4880118231632</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>235.0343037780019</v>
+        <v>141.1043918498505</v>
       </c>
       <c r="C3" t="n">
-        <v>60.58127449687484</v>
+        <v>21.07062518121437</v>
       </c>
       <c r="D3" t="n">
-        <v>60.58127449687484</v>
+        <v>21.07062518121437</v>
       </c>
       <c r="E3" t="n">
-        <v>60.58127449687484</v>
+        <v>21.07062518121437</v>
       </c>
       <c r="F3" t="n">
-        <v>60.58127449687484</v>
+        <v>21.07062518121437</v>
       </c>
       <c r="G3" t="n">
-        <v>60.58127449687484</v>
+        <v>21.07062518121437</v>
       </c>
       <c r="H3" t="n">
-        <v>21.07062518121439</v>
+        <v>21.07062518121437</v>
       </c>
       <c r="I3" t="n">
-        <v>21.07062518121439</v>
+        <v>21.07062518121437</v>
       </c>
       <c r="J3" t="n">
-        <v>21.07062518121439</v>
+        <v>21.07062518121437</v>
       </c>
       <c r="K3" t="n">
-        <v>95.65665001371029</v>
+        <v>95.65665001371015</v>
       </c>
       <c r="L3" t="n">
-        <v>242.2693060433168</v>
+        <v>242.2693060433165</v>
       </c>
       <c r="M3" t="n">
-        <v>432.7162285299028</v>
+        <v>432.7162285299024</v>
       </c>
       <c r="N3" t="n">
-        <v>642.6123592779518</v>
+        <v>642.6123592779512</v>
       </c>
       <c r="O3" t="n">
-        <v>812.4065171760976</v>
+        <v>812.4065171760969</v>
       </c>
       <c r="P3" t="n">
-        <v>929.3482319634657</v>
+        <v>929.3482319634649</v>
       </c>
       <c r="Q3" t="n">
-        <v>1053.53125906072</v>
+        <v>1053.531259060718</v>
       </c>
       <c r="R3" t="n">
-        <v>1053.53125906072</v>
+        <v>1035.156931155236</v>
       </c>
       <c r="S3" t="n">
-        <v>904.8834594766902</v>
+        <v>1035.156931155236</v>
       </c>
       <c r="T3" t="n">
-        <v>904.8834594766902</v>
+        <v>838.3453570153276</v>
       </c>
       <c r="U3" t="n">
-        <v>904.8834594766902</v>
+        <v>838.3453570153276</v>
       </c>
       <c r="V3" t="n">
-        <v>904.8834594766902</v>
+        <v>603.193248783585</v>
       </c>
       <c r="W3" t="n">
-        <v>650.6461027484886</v>
+        <v>348.9558920553833</v>
       </c>
       <c r="X3" t="n">
-        <v>442.7946025429558</v>
+        <v>141.1043918498505</v>
       </c>
       <c r="Y3" t="n">
-        <v>235.0343037780019</v>
+        <v>141.1043918498505</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>660.415769856338</v>
+        <v>319.1003581759433</v>
       </c>
       <c r="C4" t="n">
-        <v>491.4795869284311</v>
+        <v>319.1003581759433</v>
       </c>
       <c r="D4" t="n">
-        <v>491.4795869284311</v>
+        <v>168.9837187636075</v>
       </c>
       <c r="E4" t="n">
-        <v>343.566493346038</v>
+        <v>21.07062518121437</v>
       </c>
       <c r="F4" t="n">
-        <v>343.566493346038</v>
+        <v>21.07062518121437</v>
       </c>
       <c r="G4" t="n">
-        <v>174.9966135927109</v>
+        <v>21.07062518121437</v>
       </c>
       <c r="H4" t="n">
-        <v>21.07062518121439</v>
+        <v>21.07062518121437</v>
       </c>
       <c r="I4" t="n">
-        <v>21.07062518121439</v>
+        <v>21.07062518121437</v>
       </c>
       <c r="J4" t="n">
-        <v>21.07062518121439</v>
+        <v>21.07062518121437</v>
       </c>
       <c r="K4" t="n">
-        <v>125.4984182940694</v>
+        <v>126.3277805481196</v>
       </c>
       <c r="L4" t="n">
-        <v>315.7177729964345</v>
+        <v>316.5471352504846</v>
       </c>
       <c r="M4" t="n">
-        <v>526.6665349030316</v>
+        <v>527.4958971570816</v>
       </c>
       <c r="N4" t="n">
-        <v>738.0340231670089</v>
+        <v>738.8633854210589</v>
       </c>
       <c r="O4" t="n">
-        <v>917.2498138836282</v>
+        <v>918.0791761376782</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.07920109737</v>
+        <v>1047.90856335142</v>
       </c>
       <c r="Q4" t="n">
-        <v>1053.53125906072</v>
+        <v>1053.531259060718</v>
       </c>
       <c r="R4" t="n">
-        <v>1053.53125906072</v>
+        <v>1053.531259060718</v>
       </c>
       <c r="S4" t="n">
-        <v>1053.53125906072</v>
+        <v>1053.531259060718</v>
       </c>
       <c r="T4" t="n">
-        <v>1053.53125906072</v>
+        <v>1053.531259060718</v>
       </c>
       <c r="U4" t="n">
-        <v>1053.53125906072</v>
+        <v>1021.476558449625</v>
       </c>
       <c r="V4" t="n">
-        <v>1053.53125906072</v>
+        <v>766.7920702437382</v>
       </c>
       <c r="W4" t="n">
-        <v>787.488011823164</v>
+        <v>500.748823006183</v>
       </c>
       <c r="X4" t="n">
-        <v>660.415769856338</v>
+        <v>500.748823006183</v>
       </c>
       <c r="Y4" t="n">
-        <v>660.415769856338</v>
+        <v>500.748823006183</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.00642392276842</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="C5" t="n">
-        <v>41.00642392276842</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="D5" t="n">
-        <v>41.00642392276842</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="F5" t="n">
         <v>34.06092317356495</v>
@@ -4567,22 +4567,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
         <v>142.2640879052547</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515912</v>
+        <v>294.5174947515909</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030611</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991323</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358418</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4594,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>827.4467551159955</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>573.7617370571243</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>307.3840804899464</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>307.3840804899464</v>
+        <v>833.1938928750989</v>
       </c>
       <c r="X5" t="n">
-        <v>41.00642392276842</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="Y5" t="n">
-        <v>41.00642392276842</v>
+        <v>566.8162363079209</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>651.9818648816627</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C6" t="n">
-        <v>477.5288356005357</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>471.7187438561813</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>312.4812888507258</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>165.9467308776108</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>165.9467308776108</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749989</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
@@ -4649,49 +4649,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957459</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298712</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>503.6022960313622</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560897</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>906.2192216098642</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>906.2192216098642</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="U6" t="n">
-        <v>906.2192216098642</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="V6" t="n">
-        <v>906.2192216098642</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="W6" t="n">
-        <v>651.9818648816627</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="X6" t="n">
-        <v>651.9818648816627</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y6" t="n">
-        <v>651.9818648816627</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="7">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.2115014322552</v>
+        <v>650.177417354891</v>
       </c>
       <c r="C7" t="n">
-        <v>183.2115014322552</v>
+        <v>481.2412344269841</v>
       </c>
       <c r="D7" t="n">
-        <v>183.2115014322552</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="E7" t="n">
         <v>183.2115014322552</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434485</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434485</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434485</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434485</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
         <v>918.4699372075543</v>
@@ -4749,28 +4749,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>719.2759572512189</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>719.2759572512189</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>452.8983006840409</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>198.213812478154</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>198.213812478154</v>
+        <v>870.9699964984211</v>
       </c>
       <c r="X7" t="n">
-        <v>198.213812478154</v>
+        <v>870.9699964984211</v>
       </c>
       <c r="Y7" t="n">
-        <v>198.213812478154</v>
+        <v>650.177417354891</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>832.1627361996682</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C8" t="n">
-        <v>832.1627361996682</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D8" t="n">
-        <v>473.8970375929177</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E8" t="n">
         <v>473.8970375929177</v>
@@ -4807,10 +4807,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>1982.367666500681</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>1982.367666500681</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>1982.367666500681</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X8" t="n">
-        <v>1608.901908239602</v>
+        <v>2363.652677778257</v>
       </c>
       <c r="Y8" t="n">
-        <v>1218.76257626379</v>
+        <v>1973.513345802446</v>
       </c>
     </row>
     <row r="9">
@@ -4889,22 +4889,22 @@
         <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>932.4978103100998</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1295.75982926932</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N9" t="n">
-        <v>1683.044957866265</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O9" t="n">
-        <v>2015.115393042427</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P9" t="n">
-        <v>2262.298126874724</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>646.5617288506711</v>
+        <v>689.90341785788</v>
       </c>
       <c r="C10" t="n">
-        <v>477.6255459227642</v>
+        <v>520.9672349299731</v>
       </c>
       <c r="D10" t="n">
-        <v>477.6255459227642</v>
+        <v>370.8505955176373</v>
       </c>
       <c r="E10" t="n">
-        <v>346.8756322024072</v>
+        <v>222.9375019352442</v>
       </c>
       <c r="F10" t="n">
-        <v>199.9856847044969</v>
+        <v>76.04755443733384</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
         <v>51.24678656800311</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1056.199744578928</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>1056.199744578928</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X10" t="n">
-        <v>828.2101936809108</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="Y10" t="n">
-        <v>828.2101936809108</v>
+        <v>871.5518826881197</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5086,7 +5086,7 @@
         <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>929.7309773356194</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1667.930277414127</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1378.513107377167</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1150.523556479149</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y13" t="n">
-        <v>929.7309773356194</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="14">
@@ -5275,10 +5275,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075811</v>
@@ -5296,7 +5296,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1963.765362972544</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.7540666811332</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532263</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,34 +5454,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1353.195110654903</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,28 +5512,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5542,13 +5542,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5594,25 +5594,25 @@
         <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273906</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>590.9096564684978</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>695.5020655703114</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C19" t="n">
-        <v>526.5658826424045</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D19" t="n">
-        <v>526.5658826424045</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>378.6527890600114</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>231.762841562101</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>231.762841562101</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5715,10 +5715,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="20">
@@ -5734,31 +5734,31 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.55866301478</v>
@@ -5770,10 +5770,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398594</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -6016,13 +6016,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>950.7540666811332</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>781.8178837532263</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797189</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510509</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304622</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1581.18466155292</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1353.195110654903</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1132.402531511373</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803938</v>
@@ -6320,10 +6320,10 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3160.164713532175</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>2991.228530604269</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>2841.111891191933</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>2693.19879760954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>2546.308850111629</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>2546.308850111629</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2404.597018953828</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650996</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.932614305901</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328842</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.25592267304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467153</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430193</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532175</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>3160.164713532175</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6457,46 +6457,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803938</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>801.6605733532801</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>632.7243904253733</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253733</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1493.518787364011</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1204.10161732705</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1204.10161732705</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>983.3090381835199</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,28 +6688,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
@@ -6727,13 +6727,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6782,25 +6782,25 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3195.262992109388</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>3026.326809181481</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>2876.210169769146</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159224</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661314</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376194</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4623.787448650996</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4404.185983673938</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>4115.110757018136</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>4115.110757018136</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>3825.693586981175</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>3597.704036083158</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>3376.911456939628</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6928,19 +6928,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,19 +6949,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>2381.235169913447</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>2381.235169913447</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>2381.235169913447</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>2978.613657539999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>3606.211621094606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>4158.121351333893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4581.744500828961</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3026.711098656042</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C37" t="n">
-        <v>3026.711098656042</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D37" t="n">
-        <v>2876.594459243707</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E37" t="n">
-        <v>2728.681365661314</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661314</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376194</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650996</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305901</v>
+        <v>2298.214965955139</v>
       </c>
       <c r="T37" t="n">
-        <v>4269.525999282949</v>
+        <v>2078.61350097808</v>
       </c>
       <c r="U37" t="n">
-        <v>3980.450772627147</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="V37" t="n">
-        <v>3725.76628442126</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W37" t="n">
-        <v>3436.349114384299</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X37" t="n">
-        <v>3208.359563486282</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y37" t="n">
-        <v>3208.359563486282</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7253,28 +7253,28 @@
         <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>590.9096564684978</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3194.624135499465</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C40" t="n">
-        <v>3025.687952571559</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D40" t="n">
-        <v>2875.571313159223</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159223</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661313</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>4507.978318053498</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T40" t="n">
-        <v>4288.376853076439</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U40" t="n">
-        <v>3999.301626420637</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V40" t="n">
-        <v>3744.61713821475</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W40" t="n">
-        <v>3744.61713821475</v>
+        <v>1439.472830395119</v>
       </c>
       <c r="X40" t="n">
-        <v>3597.065179473235</v>
+        <v>1211.483279497101</v>
       </c>
       <c r="Y40" t="n">
-        <v>3376.272600329705</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="41">
@@ -7405,43 +7405,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>951.7772127656159</v>
+        <v>866.4638174991042</v>
       </c>
       <c r="C43" t="n">
-        <v>782.841029837709</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253733</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2109.278718126011</v>
       </c>
       <c r="U43" t="n">
-        <v>1836.89229584329</v>
+        <v>1820.203491470209</v>
       </c>
       <c r="V43" t="n">
-        <v>1582.207807637403</v>
+        <v>1565.519003264322</v>
       </c>
       <c r="W43" t="n">
-        <v>1582.207807637403</v>
+        <v>1276.101833227361</v>
       </c>
       <c r="X43" t="n">
-        <v>1354.218256739386</v>
+        <v>1048.112282329344</v>
       </c>
       <c r="Y43" t="n">
-        <v>1133.425677595856</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="44">
@@ -7642,16 +7642,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,19 +7660,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
         <v>4606.285157492578</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3194.056622594531</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>3025.120439666624</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>2876.594459243706</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E46" t="n">
-        <v>2728.681365661313</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>3932.255922673039</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>3642.838752636078</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>3414.849201738061</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>3194.056622594531</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.5916434387731</v>
+        <v>60.59164343877319</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.109135423079593</v>
+        <v>2.109135423079664</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>96.89877181692233</v>
+        <v>96.89877181692208</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>105.9060266940967</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8157,7 +8157,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>64.50521872719486</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761156</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418294</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8303,10 +8303,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>71.18793141915893</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>26.13373767211394</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,13 +8537,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>255.5240487471577</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>186.5911984019045</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>231.8866226476547</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>146.5858089828374</v>
       </c>
     </row>
     <row r="14">
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823012</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>215.1260109543624</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>61.40075786968245</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>84.99383243580152</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.45968844823051</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>146.3469868924065</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>15.02465210191855</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V31" t="n">
-        <v>59.21924749803915</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>145.8014946027467</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>33.76564955277365</v>
       </c>
       <c r="T37" t="n">
-        <v>47.71290145456592</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>44.83521572366044</v>
       </c>
       <c r="X40" t="n">
-        <v>79.63321623493718</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>130.4994612393472</v>
       </c>
       <c r="U43" t="n">
-        <v>80.64613085857593</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>1.574752399522993</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,13 +26076,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>191.8807364711615</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>758199.5400484898</v>
+        <v>758199.5400484897</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>758199.5400484898</v>
+        <v>758199.5400484896</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>758199.5400484897</v>
+        <v>758199.5400484896</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>758199.5400484897</v>
+        <v>758199.5400484896</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>758199.5400484897</v>
+        <v>758199.5400484896</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>758199.5400484898</v>
+        <v>758199.5400484896</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>758199.5400484898</v>
+        <v>758199.5400484897</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>758199.5400484898</v>
+        <v>758199.5400484896</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>758199.5400484898</v>
+        <v>758199.5400484896</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380341</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="G2" t="n">
         <v>665895.9447442552</v>
@@ -26334,28 +26334,28 @@
         <v>665895.9447442552</v>
       </c>
       <c r="I2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="J2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>665895.944744255</v>
       </c>
-      <c r="K2" t="n">
-        <v>665895.9447442548</v>
-      </c>
       <c r="L2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="M2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.944744255</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442554</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442552</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679702.4124909288</v>
+        <v>679702.4124909284</v>
       </c>
       <c r="C3" t="n">
-        <v>366.4703680945596</v>
+        <v>366.4703680950655</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059436</v>
+        <v>391128.3638059435</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,16 +26386,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5.200846139448641e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.53318642073</v>
+        <v>68912.53318642054</v>
       </c>
       <c r="K3" t="n">
-        <v>85.20559774281519</v>
+        <v>85.20559774288833</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756971</v>
+        <v>95382.6461375698</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253116.5477674033</v>
+        <v>253116.5477674034</v>
       </c>
       <c r="C4" t="n">
         <v>253016.7649073352</v>
@@ -26426,19 +26426,19 @@
         <v>142746.9572676994</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181805</v>
       </c>
       <c r="F4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
+        <v>12386.92018181813</v>
+      </c>
+      <c r="H4" t="n">
+        <v>12386.92018181807</v>
+      </c>
+      <c r="I4" t="n">
         <v>12386.92018181809</v>
-      </c>
-      <c r="H4" t="n">
-        <v>12386.92018181805</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
         <v>12386.92018181813</v>
@@ -26447,10 +26447,10 @@
         <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
+        <v>12386.92018181809</v>
+      </c>
+      <c r="M4" t="n">
         <v>12386.92018181813</v>
-      </c>
-      <c r="M4" t="n">
-        <v>12386.92018181812</v>
       </c>
       <c r="N4" t="n">
         <v>12386.92018181813</v>
@@ -26459,7 +26459,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="P4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181809</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63021.46164557684</v>
+        <v>63021.46164557681</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-318480.961765875</v>
+        <v>-318480.9617658749</v>
       </c>
       <c r="C6" t="n">
-        <v>360928.4216583374</v>
+        <v>360928.4216583369</v>
       </c>
       <c r="D6" t="n">
-        <v>50546.36662454615</v>
+        <v>50546.36662454647</v>
       </c>
       <c r="E6" t="n">
-        <v>44901.05311398348</v>
+        <v>44553.67385962686</v>
       </c>
       <c r="F6" t="n">
-        <v>552386.4947385299</v>
+        <v>552039.1154841727</v>
       </c>
       <c r="G6" t="n">
-        <v>552386.4947385299</v>
+        <v>552039.1154841732</v>
       </c>
       <c r="H6" t="n">
-        <v>552386.4947385299</v>
+        <v>552039.1154841729</v>
       </c>
       <c r="I6" t="n">
-        <v>552386.4947385297</v>
+        <v>552039.1154841727</v>
       </c>
       <c r="J6" t="n">
-        <v>483473.9615521092</v>
+        <v>483126.5822977522</v>
       </c>
       <c r="K6" t="n">
-        <v>552301.2891407867</v>
+        <v>551953.90988643</v>
       </c>
       <c r="L6" t="n">
-        <v>457003.8486009599</v>
+        <v>456656.469346603</v>
       </c>
       <c r="M6" t="n">
-        <v>419779.201009603</v>
+        <v>419431.8217552461</v>
       </c>
       <c r="N6" t="n">
-        <v>552386.4947385298</v>
+        <v>552039.1154841729</v>
       </c>
       <c r="O6" t="n">
-        <v>552386.4947385298</v>
+        <v>552039.1154841732</v>
       </c>
       <c r="P6" t="n">
-        <v>552386.4947385299</v>
+        <v>552039.1154841729</v>
       </c>
     </row>
   </sheetData>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960508</v>
+        <v>613.7700232960505</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175392</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651799</v>
+        <v>263.3828147651796</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
@@ -26813,25 +26813,25 @@
         <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-4.875793255733101e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960508</v>
+        <v>613.7700232960505</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2849904734273423</v>
+        <v>0.284990473427797</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480611</v>
+        <v>320.009878348061</v>
       </c>
       <c r="E3" t="n">
         <v>433.9106082241348</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651799</v>
+        <v>263.3828147651796</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3310652363262534</v>
+        <v>0.3310652363265376</v>
       </c>
       <c r="D4" t="n">
         <v>376.8709520985327</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651799</v>
+        <v>263.3828147651791</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363262534</v>
+        <v>0.3310652363265376</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985329</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651799</v>
+        <v>263.3828147651796</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363262534</v>
+        <v>0.3310652363265376</v>
       </c>
       <c r="L4" t="n">
         <v>376.8709520985327</v>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>101.8900770058279</v>
       </c>
       <c r="D2" t="n">
-        <v>91.30022685550307</v>
+        <v>91.30022685550335</v>
       </c>
       <c r="E2" t="n">
-        <v>118.5475553070819</v>
+        <v>169.6541529048586</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7938006179689</v>
       </c>
       <c r="T2" t="n">
         <v>212.2947308627104</v>
@@ -27438,13 +27438,13 @@
         <v>251.1482595335101</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.3694437049553</v>
       </c>
       <c r="W2" t="n">
-        <v>85.85815395223312</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>310.2486841290345</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27460,7 +27460,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>53.87506998636596</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27475,10 +27475,10 @@
         <v>136.0233325848003</v>
       </c>
       <c r="H3" t="n">
-        <v>60.36969772250296</v>
+        <v>99.4852405450068</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94290942807546</v>
+        <v>43.94290942807549</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.19058462642711</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.161321588189</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8434583985096</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.8545278323952</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27526,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8841809557937</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3867285273816</v>
       </c>
       <c r="I4" t="n">
         <v>122.1660284180233</v>
       </c>
       <c r="J4" t="n">
-        <v>15.1085330482566</v>
+        <v>15.10853304825665</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5277104718864</v>
+        <v>127.5277104718865</v>
       </c>
       <c r="S4" t="n">
         <v>204.7281204196193</v>
@@ -27593,16 +27593,16 @@
         <v>223.2165417078037</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586585345273</v>
+        <v>254.5245049295449</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>23.14018357141111</v>
+        <v>23.1401835714114</v>
       </c>
       <c r="X4" t="n">
-        <v>99.9081358418794</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27624,10 +27624,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>139.9227315613168</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862876</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>129.7959578577966</v>
       </c>
       <c r="X5" t="n">
         <v>106.0172206769629</v>
@@ -27694,13 +27694,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>141.693074737728</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27712,10 +27712,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.1525249552777</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>184.6564238592204</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
@@ -27757,13 +27757,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>164.9796922464975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248086</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117135</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>104.4763300640636</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>6.98370522701066</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>173.03131656279</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,19 +28016,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>16.99154806341576</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>141.7538398541668</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
@@ -28073,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28158,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-1.365385365123755e-12</v>
       </c>
     </row>
     <row r="12">
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-3.838555240765052e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,22 +28851,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-1.103873059371668e-12</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>-5.578167937219307e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>-5.578167937219307e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30747,7 +30747,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>-4.924468620320016e-13</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467417179079599</v>
+        <v>2.467417179079598</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26943618524895</v>
+        <v>25.26943618524894</v>
       </c>
       <c r="I2" t="n">
-        <v>95.12510079646634</v>
+        <v>95.1251007964663</v>
       </c>
       <c r="J2" t="n">
-        <v>209.4189488029073</v>
+        <v>209.4189488029072</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8647179933469</v>
+        <v>313.8647179933466</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3769364876042</v>
+        <v>389.376936487604</v>
       </c>
       <c r="M2" t="n">
-        <v>433.256866746061</v>
+        <v>433.2568667460608</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2674158061209</v>
+        <v>440.2674158061207</v>
       </c>
       <c r="O2" t="n">
-        <v>415.7320362316482</v>
+        <v>415.732036231648</v>
       </c>
       <c r="P2" t="n">
-        <v>354.8176746231205</v>
+        <v>354.8176746231203</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4532968973323</v>
+        <v>266.4532968973321</v>
       </c>
       <c r="R2" t="n">
-        <v>154.993894375359</v>
+        <v>154.9938943753589</v>
       </c>
       <c r="S2" t="n">
-        <v>56.22626896827643</v>
+        <v>56.22626896827639</v>
       </c>
       <c r="T2" t="n">
         <v>10.80111870142095</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973933743263679</v>
+        <v>0.1973933743263678</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31123,46 +31123,46 @@
         <v>1.320184578410373</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75020369148966</v>
+        <v>12.75020369148965</v>
       </c>
       <c r="I3" t="n">
-        <v>45.45372342333962</v>
+        <v>45.45372342333959</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7284912435871</v>
+        <v>124.728491243587</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1808579970821</v>
+        <v>213.180857997082</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6479717289717</v>
+        <v>286.6479717289715</v>
       </c>
       <c r="M3" t="n">
-        <v>334.5046626963476</v>
+        <v>334.5046626963475</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3580057682313</v>
+        <v>343.3580057682311</v>
       </c>
       <c r="O3" t="n">
-        <v>314.105494846612</v>
+        <v>314.1054948466118</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0973516439949</v>
+        <v>252.0973516439948</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5204033774365</v>
+        <v>168.5204033774364</v>
       </c>
       <c r="R3" t="n">
-        <v>81.96724952621602</v>
+        <v>81.96724952621598</v>
       </c>
       <c r="S3" t="n">
-        <v>24.52184951564881</v>
+        <v>24.52184951564879</v>
       </c>
       <c r="T3" t="n">
-        <v>5.321270296311986</v>
+        <v>5.321270296311983</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08685424857962987</v>
+        <v>0.08685424857962983</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.10679840266501</v>
+        <v>1.106798402665009</v>
       </c>
       <c r="H4" t="n">
-        <v>9.840443980058001</v>
+        <v>9.840443980057996</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28444650923502</v>
+        <v>33.284446509235</v>
       </c>
       <c r="J4" t="n">
-        <v>78.25064706841617</v>
+        <v>78.25064706841613</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5898507823529</v>
+        <v>128.5898507823528</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5507370653052</v>
+        <v>164.5507370653051</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4956805195705</v>
+        <v>173.4956805195704</v>
       </c>
       <c r="N4" t="n">
         <v>169.3703410187283</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4409233148689</v>
+        <v>156.4409233148688</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8622359005026</v>
+        <v>133.8622359005025</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.67927351770366</v>
+        <v>92.67927351770362</v>
       </c>
       <c r="R4" t="n">
-        <v>49.76568090528305</v>
+        <v>49.76568090528303</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28847761735293</v>
+        <v>19.28847761735292</v>
       </c>
       <c r="T4" t="n">
-        <v>4.729047720477767</v>
+        <v>4.729047720477764</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06037082196354604</v>
+        <v>0.06037082196354601</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,16 +31284,16 @@
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350879</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
         <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167917</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
         <v>433.4580399459292</v>
@@ -31302,25 +31302,25 @@
         <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658378</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R5" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702306</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990947</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
         <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N6" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
         <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736543</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944813</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0868945774202092</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,22 +31436,22 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582787</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244974</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779067</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M7" t="n">
         <v>173.576239384051</v>
@@ -31463,19 +31463,19 @@
         <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.7223070791912</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350554</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.73124354871565</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
         <v>0.06039885381339136</v>
@@ -31840,7 +31840,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422586</v>
@@ -31849,19 +31849,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>641.2555750770849</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>316.0872899694772</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,37 +32074,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P15" t="n">
-        <v>456.5952253539618</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32250,7 +32250,7 @@
         <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
         <v>790.8204499236508</v>
@@ -32314,10 +32314,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
@@ -32329,13 +32329,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>223.6976288294625</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32548,7 +32548,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32557,7 +32557,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
@@ -32566,13 +32566,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>665.2579603615019</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,16 +32785,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>441.0292693655512</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>154.5219885631796</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33502,28 +33502,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>714.9328157424943</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33733,16 +33733,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>250.1723312270658</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33973,10 +33973,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473073</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>186.6878763515704</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34207,28 +34207,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>506.566534435233</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34444,7 +34444,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.37304427622104</v>
+        <v>28.37304427622092</v>
       </c>
       <c r="K2" t="n">
-        <v>93.77486694836631</v>
+        <v>93.77486694836608</v>
       </c>
       <c r="L2" t="n">
-        <v>153.610521517617</v>
+        <v>153.6105215176167</v>
       </c>
       <c r="M2" t="n">
-        <v>202.9106335187883</v>
+        <v>202.910633518788</v>
       </c>
       <c r="N2" t="n">
-        <v>210.85435220953</v>
+        <v>210.8543522095298</v>
       </c>
       <c r="O2" t="n">
-        <v>185.6338248099615</v>
+        <v>185.6338248099612</v>
       </c>
       <c r="P2" t="n">
-        <v>123.584678867851</v>
+        <v>123.5846788678508</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.1476070228828</v>
+        <v>44.14760702288262</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.33941902272312</v>
+        <v>75.33941902272301</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0935919490975</v>
+        <v>148.0935919490973</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3706287743293</v>
+        <v>192.3706287743291</v>
       </c>
       <c r="N3" t="n">
-        <v>212.016293684898</v>
+        <v>212.0162936848978</v>
       </c>
       <c r="O3" t="n">
-        <v>171.5092504021675</v>
+        <v>171.5092504021674</v>
       </c>
       <c r="P3" t="n">
-        <v>118.1229442296647</v>
+        <v>118.1229442296645</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.4374011083373</v>
+        <v>125.4374011083369</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>105.4826193059142</v>
+        <v>106.32035895647</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1407623256213</v>
+        <v>192.1407623256212</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0795574814111</v>
+        <v>213.079557481411</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5025133979569</v>
+        <v>213.5025133979568</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0260512289085</v>
+        <v>181.0260512289084</v>
       </c>
       <c r="P4" t="n">
         <v>131.140795165396</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.517230266009278</v>
+        <v>5.67949061545264</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217703</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664461</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
         <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186564</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
         <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441511</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
         <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117352</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763041</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>263.7138800015061</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>238.3094620181795</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649636</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35111,10 +35111,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496811</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35257,13 +35257,13 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
+        <v>297.6803606378502</v>
+      </c>
+      <c r="M9" t="n">
+        <v>622.4553810291982</v>
+      </c>
+      <c r="N9" t="n">
         <v>640.5848321000389</v>
-      </c>
-      <c r="M9" t="n">
-        <v>366.9313322820405</v>
-      </c>
-      <c r="N9" t="n">
-        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
@@ -35272,10 +35272,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>303.0719207327591</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35497,19 +35497,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>509.9138629937516</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>173.4910455250327</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P15" t="n">
-        <v>322.6208179396315</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35898,7 +35898,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
@@ -35962,10 +35962,10 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
@@ -35977,13 +35977,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>81.10138438501811</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,7 +36205,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,13 +36214,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>522.6617159170574</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>302.474889585677</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>572.7987818204761</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.1905571410443</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.3288951674331</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>44.09163190712597</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683813</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>364.4325005132147</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2785442.041427674</v>
+        <v>2787202.571730459</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8825285.927659625</v>
+        <v>8825285.927659623</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.3828147651796</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.3828147651796</v>
+        <v>160.2480675276084</v>
       </c>
       <c r="E2" t="n">
-        <v>212.2762171674032</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83532033605545</v>
+        <v>12.83532033605544</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3507887739393</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2947308627104</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1482595335101</v>
       </c>
       <c r="V2" t="n">
-        <v>263.3828147651796</v>
+        <v>263.3828147651816</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>118.8334290019498</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.94290942807535</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.19058462642715</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8434583985096</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>188.7920770610348</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>33.89542677138892</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5277104718863</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>31.73415360498245</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.3828147651796</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>212.5689651179051</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015061</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>219.4450108596164</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="6">
@@ -1028,19 +1028,19 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>10.18456372565635</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>165.9023602076845</v>
       </c>
       <c r="W7" t="n">
-        <v>182.0466682725274</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>2.240868529237908</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>196.699784115679</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>90.69811547110072</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>24.55276019063743</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187843</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560553</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>175.4157349343468</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.99884436925737</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>99.97427419833905</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>68.17501931583776</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>87.2147151485299</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>220.6346102953135</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.803338518788</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>239.7247859410136</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2851,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2952,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>25.78734729249726</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3435,7 +3435,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>147.2606364488709</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>104.4262124629293</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>241.6877826129306</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>86.90598908794107</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695612</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>25.52471385612679</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>787.4880118231632</v>
+        <v>319.3637790997141</v>
       </c>
       <c r="C2" t="n">
-        <v>521.444764585608</v>
+        <v>319.3637790997141</v>
       </c>
       <c r="D2" t="n">
-        <v>255.4015173480528</v>
+        <v>157.497044223342</v>
       </c>
       <c r="E2" t="n">
-        <v>40.98109596683749</v>
+        <v>157.497044223342</v>
       </c>
       <c r="F2" t="n">
-        <v>34.03559521763402</v>
+        <v>150.5515434741386</v>
       </c>
       <c r="G2" t="n">
-        <v>21.07062518121437</v>
+        <v>137.5865734377189</v>
       </c>
       <c r="H2" t="n">
-        <v>21.07062518121437</v>
+        <v>137.5865734377189</v>
       </c>
       <c r="I2" t="n">
-        <v>21.07062518121437</v>
+        <v>21.07062518121453</v>
       </c>
       <c r="J2" t="n">
-        <v>49.15993901467277</v>
+        <v>49.1599390146738</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9970572935553</v>
+        <v>141.9970572935572</v>
       </c>
       <c r="L2" t="n">
-        <v>294.0714735959959</v>
+        <v>294.071473595999</v>
       </c>
       <c r="M2" t="n">
-        <v>494.953000779596</v>
+        <v>494.9530007796002</v>
       </c>
       <c r="N2" t="n">
-        <v>703.698809467031</v>
+        <v>703.6988094670355</v>
       </c>
       <c r="O2" t="n">
-        <v>887.4762960288923</v>
+        <v>887.4762960288984</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.825128108065</v>
+        <v>1009.825128108072</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.531259060718</v>
+        <v>1053.531259060726</v>
       </c>
       <c r="R2" t="n">
-        <v>1053.531259060718</v>
+        <v>1053.531259060726</v>
       </c>
       <c r="S2" t="n">
-        <v>1053.531259060718</v>
+        <v>1053.531259060726</v>
       </c>
       <c r="T2" t="n">
-        <v>1053.531259060718</v>
+        <v>839.0921369771805</v>
       </c>
       <c r="U2" t="n">
-        <v>1053.531259060718</v>
+        <v>585.4070263372713</v>
       </c>
       <c r="V2" t="n">
-        <v>787.4880118231632</v>
+        <v>319.3637790997141</v>
       </c>
       <c r="W2" t="n">
-        <v>787.4880118231632</v>
+        <v>319.3637790997141</v>
       </c>
       <c r="X2" t="n">
-        <v>787.4880118231632</v>
+        <v>319.3637790997141</v>
       </c>
       <c r="Y2" t="n">
-        <v>787.4880118231632</v>
+        <v>319.3637790997141</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>141.1043918498505</v>
+        <v>694.6168543022394</v>
       </c>
       <c r="C3" t="n">
-        <v>21.07062518121437</v>
+        <v>520.1638250211124</v>
       </c>
       <c r="D3" t="n">
-        <v>21.07062518121437</v>
+        <v>371.2294153598612</v>
       </c>
       <c r="E3" t="n">
-        <v>21.07062518121437</v>
+        <v>211.9919603544057</v>
       </c>
       <c r="F3" t="n">
-        <v>21.07062518121437</v>
+        <v>65.45740238129065</v>
       </c>
       <c r="G3" t="n">
-        <v>21.07062518121437</v>
+        <v>65.45740238129065</v>
       </c>
       <c r="H3" t="n">
-        <v>21.07062518121437</v>
+        <v>65.45740238129065</v>
       </c>
       <c r="I3" t="n">
-        <v>21.07062518121437</v>
+        <v>21.07062518121453</v>
       </c>
       <c r="J3" t="n">
-        <v>21.07062518121437</v>
+        <v>21.07062518121453</v>
       </c>
       <c r="K3" t="n">
-        <v>95.65665001371015</v>
+        <v>95.65665001371092</v>
       </c>
       <c r="L3" t="n">
-        <v>242.2693060433165</v>
+        <v>242.2693060433181</v>
       </c>
       <c r="M3" t="n">
-        <v>432.7162285299024</v>
+        <v>432.7162285299049</v>
       </c>
       <c r="N3" t="n">
-        <v>642.6123592779512</v>
+        <v>642.6123592779547</v>
       </c>
       <c r="O3" t="n">
-        <v>812.4065171760969</v>
+        <v>812.4065171761013</v>
       </c>
       <c r="P3" t="n">
-        <v>929.3482319634649</v>
+        <v>1025.278016062225</v>
       </c>
       <c r="Q3" t="n">
-        <v>1053.531259060718</v>
+        <v>1053.531259060726</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.156931155236</v>
+        <v>1053.531259060726</v>
       </c>
       <c r="S3" t="n">
-        <v>1035.156931155236</v>
+        <v>1053.531259060726</v>
       </c>
       <c r="T3" t="n">
-        <v>838.3453570153276</v>
+        <v>1053.531259060726</v>
       </c>
       <c r="U3" t="n">
-        <v>838.3453570153276</v>
+        <v>1053.531259060726</v>
       </c>
       <c r="V3" t="n">
-        <v>603.193248783585</v>
+        <v>862.8321913223074</v>
       </c>
       <c r="W3" t="n">
-        <v>348.9558920553833</v>
+        <v>862.8321913223074</v>
       </c>
       <c r="X3" t="n">
-        <v>141.1043918498505</v>
+        <v>862.8321913223074</v>
       </c>
       <c r="Y3" t="n">
-        <v>141.1043918498505</v>
+        <v>862.8321913223074</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>319.1003581759433</v>
+        <v>522.274345923435</v>
       </c>
       <c r="C4" t="n">
-        <v>319.1003581759433</v>
+        <v>353.3381629955281</v>
       </c>
       <c r="D4" t="n">
-        <v>168.9837187636075</v>
+        <v>203.2215235831924</v>
       </c>
       <c r="E4" t="n">
-        <v>21.07062518121437</v>
+        <v>55.30843000079929</v>
       </c>
       <c r="F4" t="n">
-        <v>21.07062518121437</v>
+        <v>21.07062518121453</v>
       </c>
       <c r="G4" t="n">
-        <v>21.07062518121437</v>
+        <v>21.07062518121453</v>
       </c>
       <c r="H4" t="n">
-        <v>21.07062518121437</v>
+        <v>21.07062518121453</v>
       </c>
       <c r="I4" t="n">
-        <v>21.07062518121437</v>
+        <v>21.07062518121453</v>
       </c>
       <c r="J4" t="n">
-        <v>21.07062518121437</v>
+        <v>21.07062518121453</v>
       </c>
       <c r="K4" t="n">
-        <v>126.3277805481196</v>
+        <v>126.3277805481202</v>
       </c>
       <c r="L4" t="n">
-        <v>316.5471352504846</v>
+        <v>316.5471352504857</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4958971570816</v>
+        <v>527.495897157083</v>
       </c>
       <c r="N4" t="n">
-        <v>738.8633854210589</v>
+        <v>738.0340231670147</v>
       </c>
       <c r="O4" t="n">
-        <v>918.0791761376782</v>
+        <v>917.2498138836345</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.90856335142</v>
+        <v>1047.079201097377</v>
       </c>
       <c r="Q4" t="n">
-        <v>1053.531259060718</v>
+        <v>1053.531259060726</v>
       </c>
       <c r="R4" t="n">
-        <v>1053.531259060718</v>
+        <v>924.7153898972049</v>
       </c>
       <c r="S4" t="n">
-        <v>1053.531259060718</v>
+        <v>924.7153898972049</v>
       </c>
       <c r="T4" t="n">
-        <v>1053.531259060718</v>
+        <v>924.7153898972049</v>
       </c>
       <c r="U4" t="n">
-        <v>1021.476558449625</v>
+        <v>924.7153898972049</v>
       </c>
       <c r="V4" t="n">
-        <v>766.7920702437382</v>
+        <v>924.7153898972049</v>
       </c>
       <c r="W4" t="n">
-        <v>500.748823006183</v>
+        <v>924.7153898972049</v>
       </c>
       <c r="X4" t="n">
-        <v>500.748823006183</v>
+        <v>924.7153898972049</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.748823006183</v>
+        <v>703.9228107536748</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>566.8162363079209</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="C5" t="n">
-        <v>566.8162363079209</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="D5" t="n">
-        <v>566.8162363079209</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E5" t="n">
-        <v>300.4385797407429</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
         <v>34.06092317356495</v>
@@ -4570,10 +4570,10 @@
         <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052547</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515909</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
         <v>495.5981834030606</v>
@@ -4606,13 +4606,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>833.1938928750989</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>566.8162363079209</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="Y5" t="n">
-        <v>566.8162363079209</v>
+        <v>522.1002068716687</v>
       </c>
     </row>
     <row r="6">
@@ -4676,16 +4676,16 @@
         <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>1026.232198106091</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>1026.232198106091</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>1026.232198106091</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>1026.232198106091</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
         <v>1026.232198106091</v>
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>650.177417354891</v>
+        <v>484.8363344083309</v>
       </c>
       <c r="C7" t="n">
-        <v>481.2412344269841</v>
+        <v>315.900151480424</v>
       </c>
       <c r="D7" t="n">
-        <v>331.1245950146483</v>
+        <v>315.900151480424</v>
       </c>
       <c r="E7" t="n">
-        <v>183.2115014322552</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4761,16 +4761,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>887.2773783821008</v>
       </c>
       <c r="W7" t="n">
-        <v>870.9699964984211</v>
+        <v>887.2773783821008</v>
       </c>
       <c r="X7" t="n">
-        <v>870.9699964984211</v>
+        <v>887.2773783821008</v>
       </c>
       <c r="Y7" t="n">
-        <v>650.177417354891</v>
+        <v>666.4847992385706</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1586.913505738324</v>
+        <v>1203.388756704967</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.950988797912</v>
+        <v>834.426239764555</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>476.1605411578045</v>
       </c>
       <c r="E8" t="n">
         <v>473.8970375929177</v>
@@ -4807,7 +4807,7 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872915</v>
@@ -4834,22 +4834,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="X8" t="n">
-        <v>2363.652677778257</v>
+        <v>1980.1279287449</v>
       </c>
       <c r="Y8" t="n">
-        <v>1973.513345802446</v>
+        <v>1589.988596769088</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.253210781439</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N9" t="n">
-        <v>1843.432194560478</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736639</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>689.90341785788</v>
+        <v>461.9138669598626</v>
       </c>
       <c r="C10" t="n">
-        <v>520.9672349299731</v>
+        <v>292.9776840319557</v>
       </c>
       <c r="D10" t="n">
-        <v>370.8505955176373</v>
+        <v>142.86104461962</v>
       </c>
       <c r="E10" t="n">
-        <v>222.9375019352442</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>76.04755443733384</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
         <v>51.24678656800311</v>
@@ -5004,10 +5004,10 @@
         <v>1092.34446183165</v>
       </c>
       <c r="X10" t="n">
-        <v>1092.34446183165</v>
+        <v>864.3549109336325</v>
       </c>
       <c r="Y10" t="n">
-        <v>871.5518826881197</v>
+        <v>643.5623317901023</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>427.7414352191922</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>923.0670414349506</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1520.445529061502</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
         <v>2319.799627685893</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X13" t="n">
-        <v>1211.329899359456</v>
+        <v>1034.14228831466</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935964</v>
+        <v>813.3497091711303</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,37 +5290,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400721</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121652</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998295</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797189</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797189</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703119</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,61 +5503,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>741.843151638089</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C19" t="n">
-        <v>572.9069687101821</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611859</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y19" t="n">
-        <v>923.4916164683287</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5983,37 +5983,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6223,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6463,22 +6463,22 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="32">
@@ -6682,49 +6682,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>869.6905094135296</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>700.7543264856228</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>550.637687073287</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2298.214965955139</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2078.61350097808</v>
+        <v>2341.482060890433</v>
       </c>
       <c r="U37" t="n">
-        <v>1789.538274322277</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="V37" t="n">
-        <v>1789.538274322277</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.121104285317</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.131553387299</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y37" t="n">
-        <v>1051.338974243769</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7168,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,7 +7186,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>809.0422355233313</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>640.1060525954244</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1439.472830395119</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.483279497101</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>990.6907003535711</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7405,58 +7405,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>866.4638174991042</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2109.278718126011</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1820.203491470209</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1565.519003264322</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.101833227361</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1048.112282329344</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1048.112282329344</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7642,16 +7642,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,19 +7660,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
         <v>4606.285157492578</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,16 +7721,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7739,7 +7739,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282754</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458823</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2171.280006238955</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.59164343877319</v>
+        <v>60.59164343877273</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.109135423079664</v>
+        <v>2.109135423079294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>96.89877181692447</v>
       </c>
       <c r="Q3" t="n">
-        <v>96.89877181692208</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8148,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444618</v>
+        <v>170.9799771939101</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8157,7 +8157,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.50521872719486</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>255.5240487471577</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>138.9393975111057</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2.330580173293129e-12</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>50.29392045469038</v>
       </c>
       <c r="Y13" t="n">
-        <v>146.5858089828374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>46.45968844823012</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>72.11969353038613</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>61.40075786968245</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>65.54986409393067</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>46.45968844823051</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>141.4594738061306</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>33.76564955277365</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>112.979237864359</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823101</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>44.83521572366044</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>130.4994612393472</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>191.8807364711615</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>758199.5400484897</v>
+        <v>758199.5400484895</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>758199.5400484896</v>
+        <v>758199.5400484897</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>758199.5400484897</v>
+        <v>758199.5400484896</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>758199.5400484896</v>
+        <v>758199.5400484897</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>758199.5400484896</v>
+        <v>758199.5400484897</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>758199.5400484897</v>
+        <v>758199.5400484896</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.460138034</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380331</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380341</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="E2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="F2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="G2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="H2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="I2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="J2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="K2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="L2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="M2" t="n">
         <v>665895.9447442552</v>
       </c>
-      <c r="G2" t="n">
-        <v>665895.9447442552</v>
-      </c>
-      <c r="H2" t="n">
-        <v>665895.9447442552</v>
-      </c>
-      <c r="I2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="O2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="P2" t="n">
         <v>665895.9447442549</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="O2" t="n">
-        <v>665895.9447442554</v>
-      </c>
-      <c r="P2" t="n">
-        <v>665895.9447442552</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679702.4124909284</v>
+        <v>679702.4124909308</v>
       </c>
       <c r="C3" t="n">
-        <v>366.4703680950655</v>
+        <v>366.4703680927663</v>
       </c>
       <c r="D3" t="n">
         <v>391128.3638059435</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245453</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>4.897497092315462e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.53318642054</v>
+        <v>68912.53318642115</v>
       </c>
       <c r="K3" t="n">
-        <v>85.20559774288833</v>
+        <v>85.20559774231778</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.6461375698</v>
+        <v>95382.64613756974</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253116.5477674034</v>
+        <v>253116.5477674028</v>
       </c>
       <c r="C4" t="n">
         <v>253016.7649073352</v>
@@ -26426,7 +26426,7 @@
         <v>142746.9572676994</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181805</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
         <v>12386.92018181813</v>
@@ -26435,10 +26435,10 @@
         <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181807</v>
+        <v>12386.92018181819</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
         <v>12386.92018181813</v>
@@ -26447,7 +26447,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
         <v>12386.92018181813</v>
@@ -26456,10 +26456,10 @@
         <v>12386.92018181813</v>
       </c>
       <c r="O4" t="n">
+        <v>12386.92018181817</v>
+      </c>
+      <c r="P4" t="n">
         <v>12386.92018181813</v>
-      </c>
-      <c r="P4" t="n">
-        <v>12386.92018181809</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63021.46164557681</v>
+        <v>63021.46164557698</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-318480.9617658749</v>
+        <v>-318480.9617658766</v>
       </c>
       <c r="C6" t="n">
-        <v>360928.4216583369</v>
+        <v>360928.421658339</v>
       </c>
       <c r="D6" t="n">
-        <v>50546.36662454647</v>
+        <v>50546.366624546</v>
       </c>
       <c r="E6" t="n">
-        <v>44553.67385962686</v>
+        <v>44866.31518854872</v>
       </c>
       <c r="F6" t="n">
-        <v>552039.1154841727</v>
+        <v>552351.7568130936</v>
       </c>
       <c r="G6" t="n">
-        <v>552039.1154841732</v>
+        <v>552351.756813094</v>
       </c>
       <c r="H6" t="n">
-        <v>552039.1154841729</v>
+        <v>552351.756813094</v>
       </c>
       <c r="I6" t="n">
-        <v>552039.1154841727</v>
+        <v>552351.7568130941</v>
       </c>
       <c r="J6" t="n">
-        <v>483126.5822977522</v>
+        <v>483439.2236266728</v>
       </c>
       <c r="K6" t="n">
-        <v>551953.90988643</v>
+        <v>552266.5512153517</v>
       </c>
       <c r="L6" t="n">
-        <v>456656.469346603</v>
+        <v>456969.110675524</v>
       </c>
       <c r="M6" t="n">
-        <v>419431.8217552461</v>
+        <v>419744.4630841676</v>
       </c>
       <c r="N6" t="n">
-        <v>552039.1154841729</v>
+        <v>552351.7568130945</v>
       </c>
       <c r="O6" t="n">
-        <v>552039.1154841732</v>
+        <v>552351.7568130938</v>
       </c>
       <c r="P6" t="n">
-        <v>552039.1154841729</v>
+        <v>552351.7568130941</v>
       </c>
     </row>
   </sheetData>
@@ -26724,7 +26724,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960505</v>
+        <v>613.7700232960523</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694783</v>
@@ -26746,7 +26746,7 @@
         <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651796</v>
+        <v>263.3828147651816</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
@@ -26798,19 +26798,19 @@
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26828,10 +26828,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-4.875793255733101e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960505</v>
+        <v>613.7700232960523</v>
       </c>
       <c r="C3" t="n">
-        <v>0.284990473427797</v>
+        <v>0.2849904734259781</v>
       </c>
       <c r="D3" t="n">
         <v>320.009878348061</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241348</v>
+        <v>433.9106082241341</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,40 +27011,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651796</v>
+        <v>263.3828147651816</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3310652363265376</v>
+        <v>0.3310652363245481</v>
       </c>
       <c r="D4" t="n">
         <v>376.8709520985327</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996091</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651791</v>
+        <v>263.3828147651815</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363265376</v>
+        <v>0.3310652363243207</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985329</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996091</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651796</v>
+        <v>263.3828147651816</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363265376</v>
+        <v>0.3310652363245481</v>
       </c>
       <c r="L4" t="n">
         <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996091</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.8900770058279</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>91.30022685550335</v>
+        <v>194.4349740930746</v>
       </c>
       <c r="E2" t="n">
-        <v>169.6541529048586</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>314.2053659305182</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3507887739396</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7938006179689</v>
+        <v>152.7938006179688</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2947308627104</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1482595335101</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>64.3694437049553</v>
+        <v>64.36944370495331</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>53.87506998636596</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0233325848003</v>
+        <v>136.0233325848002</v>
       </c>
       <c r="H3" t="n">
-        <v>99.4852405450068</v>
+        <v>99.48524054500677</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94290942807549</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.19058462642691</v>
       </c>
       <c r="S3" t="n">
         <v>147.161321588189</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8434583985096</v>
       </c>
       <c r="U3" t="n">
         <v>225.8545278323952</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>44.00851008839049</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>111.5256212515423</v>
       </c>
       <c r="G4" t="n">
         <v>166.8841809557937</v>
@@ -27557,10 +27557,10 @@
         <v>152.3867285273816</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1660284180233</v>
+        <v>122.1660284180232</v>
       </c>
       <c r="J4" t="n">
-        <v>15.10853304825665</v>
+        <v>15.10853304825642</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5277104718865</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>204.7281204196193</v>
@@ -27593,19 +27593,19 @@
         <v>223.2165417078037</v>
       </c>
       <c r="U4" t="n">
-        <v>254.5245049295449</v>
+        <v>286.2586585345273</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>23.1401835714114</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>152.7039266531025</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402053</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>129.7959578577966</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>106.0172206769629</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27748,7 +27748,7 @@
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>184.6564238592204</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
@@ -27760,7 +27760,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>195.5884214778211</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27833,10 +27833,10 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>86.23528311614348</v>
       </c>
       <c r="W7" t="n">
-        <v>104.4763300640636</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>379.6895015430239</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>173.03131656279</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28019,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>55.73584717546845</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>141.7538398541668</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28158,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-1.365385365123755e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28806,7 +28806,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>-5.578167937219307e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-5.578167937219307e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30462,7 +30462,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>9.28537247091299e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30747,7 +30747,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>-4.924468620320016e-13</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467417179079598</v>
+        <v>2.467417179079605</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26943618524894</v>
+        <v>25.26943618524901</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1251007964663</v>
+        <v>95.12510079646657</v>
       </c>
       <c r="J2" t="n">
-        <v>209.4189488029072</v>
+        <v>209.4189488029078</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8647179933466</v>
+        <v>313.8647179933476</v>
       </c>
       <c r="L2" t="n">
-        <v>389.376936487604</v>
+        <v>389.3769364876051</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2568667460608</v>
+        <v>433.256866746062</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2674158061207</v>
+        <v>440.267415806122</v>
       </c>
       <c r="O2" t="n">
-        <v>415.732036231648</v>
+        <v>415.7320362316491</v>
       </c>
       <c r="P2" t="n">
-        <v>354.8176746231203</v>
+        <v>354.8176746231214</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4532968973321</v>
+        <v>266.4532968973329</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9938943753589</v>
+        <v>154.9938943753594</v>
       </c>
       <c r="S2" t="n">
-        <v>56.22626896827639</v>
+        <v>56.22626896827656</v>
       </c>
       <c r="T2" t="n">
-        <v>10.80111870142095</v>
+        <v>10.80111870142098</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973933743263678</v>
+        <v>0.1973933743263684</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320184578410373</v>
+        <v>1.320184578410377</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75020369148965</v>
+        <v>12.75020369148969</v>
       </c>
       <c r="I3" t="n">
-        <v>45.45372342333959</v>
+        <v>45.45372342333972</v>
       </c>
       <c r="J3" t="n">
-        <v>124.728491243587</v>
+        <v>124.7284912435874</v>
       </c>
       <c r="K3" t="n">
-        <v>213.180857997082</v>
+        <v>213.1808579970826</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6479717289715</v>
+        <v>286.6479717289724</v>
       </c>
       <c r="M3" t="n">
-        <v>334.5046626963475</v>
+        <v>334.5046626963484</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3580057682311</v>
+        <v>343.3580057682321</v>
       </c>
       <c r="O3" t="n">
-        <v>314.1054948466118</v>
+        <v>314.1054948466127</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0973516439948</v>
+        <v>252.0973516439955</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5204033774364</v>
+        <v>168.5204033774368</v>
       </c>
       <c r="R3" t="n">
-        <v>81.96724952621598</v>
+        <v>81.96724952621622</v>
       </c>
       <c r="S3" t="n">
-        <v>24.52184951564879</v>
+        <v>24.52184951564886</v>
       </c>
       <c r="T3" t="n">
-        <v>5.321270296311983</v>
+        <v>5.321270296311998</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08685424857962983</v>
+        <v>0.08685424857963008</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106798402665009</v>
+        <v>1.106798402665012</v>
       </c>
       <c r="H4" t="n">
-        <v>9.840443980057996</v>
+        <v>9.840443980058025</v>
       </c>
       <c r="I4" t="n">
-        <v>33.284446509235</v>
+        <v>33.2844465092351</v>
       </c>
       <c r="J4" t="n">
-        <v>78.25064706841613</v>
+        <v>78.25064706841636</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5898507823528</v>
+        <v>128.5898507823532</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5507370653051</v>
+        <v>164.5507370653056</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4956805195704</v>
+        <v>173.4956805195709</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3703410187283</v>
+        <v>169.3703410187288</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4409233148688</v>
+        <v>156.4409233148692</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8622359005025</v>
+        <v>133.8622359005029</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.67927351770362</v>
+        <v>92.67927351770389</v>
       </c>
       <c r="R4" t="n">
-        <v>49.76568090528303</v>
+        <v>49.76568090528317</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28847761735292</v>
+        <v>19.28847761735298</v>
       </c>
       <c r="T4" t="n">
-        <v>4.729047720477764</v>
+        <v>4.729047720477778</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06037082196354601</v>
+        <v>0.06037082196354619</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>381.2855185329327</v>
       </c>
       <c r="O12" t="n">
-        <v>316.0872899694772</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.37304427622092</v>
+        <v>28.37304427622155</v>
       </c>
       <c r="K2" t="n">
-        <v>93.77486694836608</v>
+        <v>93.77486694836705</v>
       </c>
       <c r="L2" t="n">
-        <v>153.6105215176167</v>
+        <v>153.6105215176179</v>
       </c>
       <c r="M2" t="n">
-        <v>202.910633518788</v>
+        <v>202.9106335187893</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8543522095298</v>
+        <v>210.8543522095311</v>
       </c>
       <c r="O2" t="n">
-        <v>185.6338248099612</v>
+        <v>185.6338248099624</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5846788678508</v>
+        <v>123.5846788678518</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.14760702288262</v>
+        <v>44.14760702288342</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.33941902272301</v>
+        <v>75.33941902272363</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0935919490973</v>
+        <v>148.0935919490982</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3706287743291</v>
+        <v>192.3706287743301</v>
       </c>
       <c r="N3" t="n">
-        <v>212.0162936848978</v>
+        <v>212.0162936848988</v>
       </c>
       <c r="O3" t="n">
-        <v>171.5092504021674</v>
+        <v>171.5092504021683</v>
       </c>
       <c r="P3" t="n">
-        <v>118.1229442296645</v>
+        <v>215.0217160465897</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.4374011083369</v>
+        <v>28.53862929141533</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.32035895647</v>
+        <v>106.3203589564704</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1407623256212</v>
+        <v>192.1407623256217</v>
       </c>
       <c r="M4" t="n">
-        <v>213.079557481411</v>
+        <v>213.0795574814115</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5025133979568</v>
+        <v>212.6647737474057</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0260512289084</v>
+        <v>181.0260512289089</v>
       </c>
       <c r="P4" t="n">
-        <v>131.140795165396</v>
+        <v>131.1407951653964</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.67949061545264</v>
+        <v>6.517230266009506</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>622.4553810291982</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
@@ -35272,10 +35272,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>255.4201198419603</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>249.9438064495994</v>
       </c>
       <c r="O12" t="n">
-        <v>173.4910455250327</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
